--- a/ext/PROTEUS/InputFiles/input_RecBeam/RecBeam_Input.xlsx
+++ b/ext/PROTEUS/InputFiles/input_RecBeam/RecBeam_Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marionatella/Documents/Joined Tool/ext/PROTEUS/InputFiles/input_RecBeam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marionatella/Documents/JointTool/ext/PROTEUS/InputFiles/input_RecBeam/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="973" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="973" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
@@ -4162,11 +4162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1987747120"/>
-        <c:axId val="-2031411120"/>
+        <c:axId val="-2118896176"/>
+        <c:axId val="-2118582544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1987747120"/>
+        <c:axId val="-2118896176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -4215,12 +4215,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="-2031411120"/>
+        <c:crossAx val="-2118582544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2031411120"/>
+        <c:axId val="-2118582544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="20.0"/>
@@ -4269,13 +4269,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1987747120"/>
+        <c:crossAx val="-2118896176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4544,8 +4545,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2047842800"/>
-        <c:axId val="-2034632288"/>
+        <c:axId val="2119562320"/>
+        <c:axId val="-2119064448"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4781,11 +4782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2064366080"/>
-        <c:axId val="-1988942064"/>
+        <c:axId val="-2114320016"/>
+        <c:axId val="2119823248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2047842800"/>
+        <c:axId val="2119562320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,18 +4819,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2034632288"/>
+        <c:crossAx val="-2119064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2034632288"/>
+        <c:axId val="-2119064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4876,12 +4878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2047842800"/>
+        <c:crossAx val="2119562320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1988942064"/>
+        <c:axId val="2119823248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4918,12 +4920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064366080"/>
+        <c:crossAx val="-2114320016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2064366080"/>
+        <c:axId val="-2114320016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1988942064"/>
+        <c:crossAx val="2119823248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5916,11 +5918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1986894288"/>
-        <c:axId val="-1987194000"/>
+        <c:axId val="-2104527296"/>
+        <c:axId val="-2104524256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1986894288"/>
+        <c:axId val="-2104527296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5942,12 +5944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1987194000"/>
+        <c:crossAx val="-2104524256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1987194000"/>
+        <c:axId val="-2104524256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,7 +5970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1986894288"/>
+        <c:crossAx val="-2104527296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6912,11 +6914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1986882800"/>
-        <c:axId val="-1986897568"/>
+        <c:axId val="-2104725904"/>
+        <c:axId val="-2104722864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1986882800"/>
+        <c:axId val="-2104725904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -6938,12 +6940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1986897568"/>
+        <c:crossAx val="-2104722864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1986897568"/>
+        <c:axId val="-2104722864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,7 +6966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1986882800"/>
+        <c:crossAx val="-2104725904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7908,11 +7910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140062624"/>
-        <c:axId val="-2139917184"/>
+        <c:axId val="-2104671456"/>
+        <c:axId val="-2104668416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140062624"/>
+        <c:axId val="-2104671456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -7934,12 +7936,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139917184"/>
+        <c:crossAx val="-2104668416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139917184"/>
+        <c:axId val="-2104668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7960,7 +7962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140062624"/>
+        <c:crossAx val="-2104671456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13316,8 +13318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29820,7 +29822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO108"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
